--- a/biology/Mycologie/Tmesipteris/Tmesipteris.xlsx
+++ b/biology/Mycologie/Tmesipteris/Tmesipteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Tmesipteris regroupe une petite dizaine d'espèces. Ce sont des plantes tropicales originaires de l'ouest du Pacifique Sud incluant la Nouvelle-Calédonie, l'Australie et la Nouvelle-Zélande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Tmesipteris regroupe une petite dizaine d'espèces. Ce sont des plantes tropicales originaires de l'ouest du Pacifique Sud incluant la Nouvelle-Calédonie, l'Australie et la Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Tmesipteris est caractérisé par des tiges simples.
 Le sommet de la tige est presque toujours terminé par une écaille.
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (19 avril 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (19 avril 2017) :
 Tmesipteris elongata Dangeard
 Tmesipteris gracilis Chinnock
 Tmesipteris horomaka Perrie, Brownsey &amp; Lovis
@@ -590,7 +606,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">K. Boedyn. Les plantes du Monde - Tome III - Hachette - 1966 - p. 352.
 ↑ {en} Site de l'université de Berkeley http://www.ucmp.berkeley.edu/plants/pterophyta/psilotales.html
